--- a/config_debug/act_042_xshb_config.xlsx
+++ b/config_debug/act_042_xshb_config.xlsx
@@ -61,91 +61,91 @@
     <t>任意游戏累计消耗120万</t>
   </si>
   <si>
+    <t>终身1次</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+  </si>
+  <si>
+    <t>5元奖励金</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗80万</t>
+  </si>
+  <si>
+    <t>终身3次</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v0</t>
+  </si>
+  <si>
+    <t>新人</t>
+  </si>
+  <si>
+    <t>3元奖励金</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗30万</t>
+  </si>
+  <si>
     <t>每天1次</t>
   </si>
   <si>
+    <t>xshb_042_deblocking_v1</t>
+  </si>
+  <si>
+    <t>VIP1</t>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+  </si>
+  <si>
+    <t>1元奖励金</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗20万</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v2</t>
+  </si>
+  <si>
+    <t>VIP2</t>
+  </si>
+  <si>
+    <t>单笔充值≥6元</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v3</t>
+  </si>
+  <si>
+    <t>VIP3</t>
+  </si>
+  <si>
+    <t>0.5元奖励金</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>携带金币20万</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_show_not</t>
+  </si>
+  <si>
     <t>xshb_042_deblocking_v4</t>
   </si>
   <si>
     <t>VIP4</t>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-  </si>
-  <si>
-    <t>5元奖励金</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>任意游戏累计消耗80万</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v3</t>
-  </si>
-  <si>
-    <t>VIP3</t>
-  </si>
-  <si>
-    <t>3元奖励金</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>任意游戏累计消耗30万</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v2</t>
-  </si>
-  <si>
-    <t>VIP2</t>
-  </si>
-  <si>
-    <t>1元奖励金</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>任意游戏累计消耗20万</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v1</t>
-  </si>
-  <si>
-    <t>VIP1</t>
-  </si>
-  <si>
-    <t>单笔充值≥6元</t>
-  </si>
-  <si>
-    <t>终身3次</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v0</t>
-  </si>
-  <si>
-    <t>新人</t>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-  </si>
-  <si>
-    <t>0.5元奖励金</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>携带金币20万</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_show_not</t>
-  </si>
-  <si>
-    <t>终身1次</t>
   </si>
 </sst>
 </file>
@@ -153,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -174,79 +174,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +225,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -294,32 +304,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -337,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,6 +594,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -589,45 +628,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,137 +648,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -823,13 +823,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1240,16 +1240,12 @@
         <v>15</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1260,32 +1256,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>1000660</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1296,32 +1292,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>1000661</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1332,32 +1328,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4">
         <v>1000662</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="J5" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="K5" s="15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1368,32 +1364,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="4">
         <v>1000663</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="16" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1404,47 +1400,46 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="4">
         <v>1000664</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="4">
-        <v>6</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
       <c r="K7" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="9"/>
@@ -1483,8 +1478,8 @@
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="3:6">
@@ -1492,40 +1487,82 @@
       <c r="D12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:12">
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="3:6">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="3:12">
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="3:6">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="3:12">
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="3:6">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="3:12">
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="3:6">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="3:12">
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="3:12">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="F19" s="13"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/act_042_xshb_config.xlsx
+++ b/config_debug/act_042_xshb_config.xlsx
@@ -52,6 +52,87 @@
     <t>is_on|显示开关</t>
   </si>
   <si>
+    <t>0.5元奖励金</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>携带金币20万</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_show_not</t>
+  </si>
+  <si>
+    <t>终身1次</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+  </si>
+  <si>
+    <t>3元奖励金</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>单笔充值≥6元</t>
+  </si>
+  <si>
+    <t>终身3次</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v0</t>
+  </si>
+  <si>
+    <t>新人</t>
+  </si>
+  <si>
+    <t>1元奖励金</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗20万</t>
+  </si>
+  <si>
+    <t>每天1次</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v1</t>
+  </si>
+  <si>
+    <t>VIP1</t>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗30万</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v2</t>
+  </si>
+  <si>
+    <t>VIP2</t>
+  </si>
+  <si>
+    <t>5元奖励金</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>任意游戏累计消耗80万</t>
+  </si>
+  <si>
+    <t>xshb_042_deblocking_v3</t>
+  </si>
+  <si>
+    <t>VIP3</t>
+  </si>
+  <si>
     <t>10元奖励金</t>
   </si>
   <si>
@@ -59,87 +140,6 @@
   </si>
   <si>
     <t>任意游戏累计消耗120万</t>
-  </si>
-  <si>
-    <t>终身1次</t>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-  </si>
-  <si>
-    <t>5元奖励金</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>任意游戏累计消耗80万</t>
-  </si>
-  <si>
-    <t>终身3次</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v0</t>
-  </si>
-  <si>
-    <t>新人</t>
-  </si>
-  <si>
-    <t>3元奖励金</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>任意游戏累计消耗30万</t>
-  </si>
-  <si>
-    <t>每天1次</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v1</t>
-  </si>
-  <si>
-    <t>VIP1</t>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-  </si>
-  <si>
-    <t>1元奖励金</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>任意游戏累计消耗20万</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v2</t>
-  </si>
-  <si>
-    <t>VIP2</t>
-  </si>
-  <si>
-    <t>单笔充值≥6元</t>
-  </si>
-  <si>
-    <t>xshb_042_deblocking_v3</t>
-  </si>
-  <si>
-    <t>VIP3</t>
-  </si>
-  <si>
-    <t>0.5元奖励金</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>携带金币20万</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_show_not</t>
   </si>
   <si>
     <t>xshb_042_deblocking_v4</t>
@@ -180,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -187,31 +195,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,51 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -287,39 +292,34 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -337,19 +337,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,73 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,85 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,17 +531,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,21 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,26 +597,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,149 +636,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -803,10 +803,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1230,14 +1230,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="4">
-        <v>1000659</v>
+        <v>1000664</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4">
         <v>6</v>
@@ -1245,7 +1247,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1256,32 +1258,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>1000660</v>
+        <v>1000663</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>21</v>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1292,32 +1294,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="4">
-        <v>1000661</v>
+        <v>1000662</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>27</v>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1328,32 +1330,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1000661</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4">
-        <v>1000662</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="K5" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1364,32 +1366,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
-        <v>1000663</v>
+        <v>1000660</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
+      <c r="I6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1400,46 +1402,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4">
-        <v>1000664</v>
+        <v>1000659</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="9"/>
@@ -1493,59 +1488,69 @@
       <c r="F13" s="13"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="F14" s="13"/>
+    <row r="14" spans="2:12">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="2:12">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="F16" s="13"/>
+    <row r="16" spans="2:12">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="F17" s="13"/>
+    <row r="17" spans="2:12">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="F18" s="13"/>
+    <row r="18" spans="2:12">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="14"/>
@@ -1553,10 +1558,12 @@
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="F19" s="13"/>
+    <row r="19" spans="2:12">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
@@ -1564,6 +1571,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="1"/>
     </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/config_debug/act_042_xshb_config.xlsx
+++ b/config_debug/act_042_xshb_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>index|序列</t>
   </si>
@@ -70,7 +70,7 @@
     <t>VIP4</t>
   </si>
   <si>
-    <t>game_MiniGame</t>
+    <t>"game_MiniGame",</t>
   </si>
   <si>
     <t>5元奖励金</t>
@@ -124,7 +124,13 @@
     <t>终身3次</t>
   </si>
   <si>
-    <t>shop_bay,"jing_bi",</t>
+    <t>xshb_042_deblocking_v0</t>
+  </si>
+  <si>
+    <t>新人</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
   </si>
   <si>
     <t>0.5元奖励金</t>
@@ -147,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -168,12 +174,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -183,76 +210,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,11 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -303,6 +294,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -310,7 +309,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,79 +337,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,103 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,30 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +590,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,6 +619,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,137 +648,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1159,7 +1165,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1380,10 +1386,14 @@
       <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="K6" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1394,22 +1404,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4">
         <v>1000664</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4">
         <v>6</v>
@@ -1417,7 +1427,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>

--- a/config_debug/act_042_xshb_config.xlsx
+++ b/config_debug/act_042_xshb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>index|序列</t>
   </si>
@@ -167,6 +167,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +177,44 @@
   </si>
   <si>
     <t>携带金币2万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5元奖励金</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>携带金币2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xshb_cjj_xdjb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -194,6 +233,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -201,17 +241,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +360,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,13 +653,13 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F14" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="6" width="34.375" customWidth="1"/>
@@ -621,7 +676,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -691,30 +746,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="21">
+        <v>50</v>
       </c>
       <c r="D3" s="4">
-        <v>1000663</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>30045</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
@@ -727,32 +780,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
-        <v>1000662</v>
+        <v>1000663</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -763,29 +816,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="4">
-        <v>1000661</v>
+        <v>1000662</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>27</v>
@@ -799,29 +852,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>1000660</v>
+        <v>1000661</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>27</v>
@@ -835,29 +888,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>1000659</v>
+        <v>1000660</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>27</v>
@@ -867,7 +920,40 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000659</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="9"/>
@@ -954,7 +1040,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
